--- a/PetShop.xlsx
+++ b/PetShop.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="User" sheetId="1" r:id="rId1"/>
@@ -1526,8 +1526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:S31"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="S24" sqref="S24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1925,10 +1925,10 @@
         <v>167</v>
       </c>
       <c r="R6" t="s">
+        <v>87</v>
+      </c>
+      <c r="S6" t="s">
         <v>168</v>
-      </c>
-      <c r="S6" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -1989,10 +1989,10 @@
         <v>175</v>
       </c>
       <c r="R7" t="s">
+        <v>87</v>
+      </c>
+      <c r="S7" t="s">
         <v>176</v>
-      </c>
-      <c r="S7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -2181,10 +2181,10 @@
         <v>154</v>
       </c>
       <c r="R10" t="s">
+        <v>87</v>
+      </c>
+      <c r="S10" t="s">
         <v>155</v>
-      </c>
-      <c r="S10" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -2245,10 +2245,10 @@
         <v>147</v>
       </c>
       <c r="R11" t="s">
+        <v>87</v>
+      </c>
+      <c r="S11" t="s">
         <v>148</v>
-      </c>
-      <c r="S11" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -2309,10 +2309,10 @@
         <v>162</v>
       </c>
       <c r="R12" t="s">
+        <v>87</v>
+      </c>
+      <c r="S12" t="s">
         <v>163</v>
-      </c>
-      <c r="S12" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -2373,10 +2373,10 @@
         <v>143</v>
       </c>
       <c r="R13" t="s">
+        <v>87</v>
+      </c>
+      <c r="S13" t="s">
         <v>144</v>
-      </c>
-      <c r="S13" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -3077,10 +3077,10 @@
         <v>171</v>
       </c>
       <c r="R24" t="s">
+        <v>87</v>
+      </c>
+      <c r="S24" t="s">
         <v>172</v>
-      </c>
-      <c r="S24" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:19">
@@ -3205,10 +3205,10 @@
         <v>158</v>
       </c>
       <c r="R26" t="s">
+        <v>87</v>
+      </c>
+      <c r="S26" t="s">
         <v>159</v>
-      </c>
-      <c r="S26" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:19">
@@ -3461,10 +3461,10 @@
         <v>152</v>
       </c>
       <c r="R30" t="s">
+        <v>87</v>
+      </c>
+      <c r="S30" t="s">
         <v>153</v>
-      </c>
-      <c r="S30" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="31" spans="1:19">
@@ -3525,10 +3525,10 @@
         <v>136</v>
       </c>
       <c r="R31" t="s">
+        <v>87</v>
+      </c>
+      <c r="S31" t="s">
         <v>137</v>
-      </c>
-      <c r="S31" t="s">
-        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -3952,7 +3952,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="A2" sqref="A2:I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4342,8 +4342,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
